--- a/Logs/logreg1-14-3-18.xlsx
+++ b/Logs/logreg1-14-3-18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WVALDOGRAELL\Documents\GitHub\RETO_I2C\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB7A322-3443-466A-9D92-4C3E7538EECD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4641AEF0-8189-4F06-B2F8-135342D567FC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,21 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="5">
   <si>
-    <t>Column1</t>
+    <t xml:space="preserve"> Region 1</t>
   </si>
   <si>
-    <t>Column2</t>
+    <t>Latitud</t>
   </si>
   <si>
-    <t>Column3</t>
+    <t>Longitud</t>
   </si>
   <si>
-    <t>Column4</t>
+    <t>Distancia(m)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Region 1</t>
+    <t>Region</t>
   </si>
 </sst>
 </file>
@@ -2054,7 +2054,2836 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PA"/>
+              <a:t>Segundo intento</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>logreg1!$A$196:$A$252</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>9.0232700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0232708000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0232732999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0232694999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0232677999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0232682000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0232673000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0232665000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0232647999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0232627000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0232618000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0232603000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0232585000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0232565000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0232559999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0232547000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0232533000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0232524999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0232512000000007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0232483000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0232469999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.0232465000000008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0232466999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0232442000000006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0232414999999992</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.0232381999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.0232360000000007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0232337999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.0232332</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.0232296999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0232267999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.0232243000000008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.0232229999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.0232185000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.0232153000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0232118000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0232101999999994</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.0232092000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.0232077999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.0232062000000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.0232033000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.0232007999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.0231981999999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.0231966999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.0231946999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.0231933000000009</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.0231902000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.0231891999999991</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.0231873</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.0231860000000008</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.0231835</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.0231823000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.0231808000000004</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.0231794999999995</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.0231785000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.0231771999999992</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.0231759999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>logreg1!$B$196:$B$252</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>-79.531504999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-79.531504200000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-79.531499699999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-79.531501300000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-79.531501199999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-79.531500199999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-79.531499999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-79.531500500000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-79.531500699999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-79.531501800000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-79.531502000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-79.531503299999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-79.531504299999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-79.531504999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-79.531503299999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-79.531503000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-79.531503200000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-79.531502000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-79.531500699999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-79.531499499999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-79.531497299999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-79.531495699999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-79.531493800000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-79.531495199999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-79.5314932</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-79.531492700000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-79.531492200000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-79.531492200000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-79.531490199999993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-79.531490199999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-79.531489199999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-79.531487200000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-79.531485700000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-79.5314865</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-79.531486799999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-79.531486299999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-79.531485799999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-79.531485200000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-79.531484300000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-79.531482999999994</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-79.531483300000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-79.531483300000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-79.531483499999993</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-79.531484000000006</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-79.531484699999993</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-79.531484000000006</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-79.531482699999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-79.531482699999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-79.531482199999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-79.531480999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-79.531481299999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-79.531481299999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-79.531481200000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-79.531480299999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-79.531479000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-79.531478300000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-79.531478699999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F5A-4F5F-8E4B-D40E8A3A5FC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1392195344"/>
+        <c:axId val="1393846448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1392195344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1393846448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1393846448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1392195344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PA"/>
+              <a:t>Tercer intento</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>logreg1!$A$253:$A$437</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="185"/>
+                <c:pt idx="0">
+                  <c:v>9.0234053000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0234044999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0234038000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0234036999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0234155000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0234162999999992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0234229999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0234225000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0234220000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0234202999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0234191999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0234170000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0234155000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0234141999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0234129999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0234100000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0234082000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0234067000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0234058000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0234044999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0234030000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.0234017000000009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0234003000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0233985000000008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0233969999999992</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.023396</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.0233950000000007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0233939999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.0233927999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.0233912000000007</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0233907999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.0233896999999992</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.0233881999999994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.0233866999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.0233857000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0233837000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0233817999999992</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.0233802000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.0233782999999992</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.0233760000000007</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.0233737000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.0233708000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.0233696999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.0233682000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.0233670000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.0233656999999994</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.0233647000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.0233627999999992</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.0233612999999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.0233602000000008</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.0233591999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.0233582000000006</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.0233567000000008</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.0233553000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.0233542999999994</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.0233527999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.0233515000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.0233501999999994</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.0233486999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.0233472999999993</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.0233462000000006</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.0233445000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.0233433000000005</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.0233428</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.0233416999999996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.0233404999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.0233393</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.0233387999999994</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.0233378000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.0233369999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.0233363000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.0233357000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.0233345000000007</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.0233340000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.0233334999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.0233329999999992</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.0233334999999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.0233329999999992</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.0233326999999992</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.0233328000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.0233317999999993</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.0233314999999994</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.0233313000000006</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.0233302000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.0233291999999992</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.0233281999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.0233272000000007</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.0233260000000008</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.0233249999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.0233244999999993</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.0233249999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.0233241999999994</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.0233235000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.0233223000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.0233206999999993</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.0233187000000008</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.0233155000000007</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.0233139999999992</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.0233124999999994</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.0233117000000007</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.0233112999999996</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9.0233091999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9.0233085000000006</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9.0233080000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9.0233080000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9.0233073000000008</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.0233053000000005</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9.0233047000000006</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.0233038000000008</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9.0233027999999997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.0233016999999993</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9.0233003000000007</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.0232984999999992</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.0232968000000007</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9.0232949999999992</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.0232931999999995</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.0232916999999997</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9.0232907999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.0232884999999996</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9.0232864999999993</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9.0232846999999996</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>9.0232834999999998</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9.0232823</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9.0232822000000006</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9.0232817000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>9.0232810000000008</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>9.0232796999999998</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>9.0232785</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>9.0232775000000007</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9.0232767000000003</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>9.0232756999999992</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9.0232752999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>9.0232744999999994</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>9.0232749999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9.0232729999999997</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>9.0232720000000004</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>9.0232711999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9.0232708000000006</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>9.0232513000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>9.0232516999999994</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>9.0232504999999996</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>9.0232486999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>9.0232472999999995</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>9.0232452999999992</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>9.0232443</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>9.0232430000000008</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>9.0232410000000005</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>9.0232387000000003</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>9.0232372000000005</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>9.0232355000000002</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>9.0232334999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>9.0232329999999994</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>9.0232290000000006</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>9.0232276999999996</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>9.0232256999999993</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>9.0232224999999993</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>9.0232212999999994</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>9.0232194999999997</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>9.023218</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9.0232156999999997</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>9.0232136999999994</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>9.0232116999999992</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>9.0232092999999995</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>9.0232077999999998</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>9.0232053000000008</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>9.0232042000000003</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>9.0232028</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>9.0232002999999992</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>9.0231978000000002</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>9.0231961999999992</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>9.0231940000000002</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>9.0231917999999993</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>9.0231890000000003</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>9.0231872000000006</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>9.0231855000000003</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>9.0231832000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>9.0231820000000003</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>9.02318</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>9.0231779999999997</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>9.0231767000000005</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>9.0231752000000007</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9.0231743000000009</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>9.0231729999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>9.0231727999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>logreg1!$B$253:$B$437</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="185"/>
+                <c:pt idx="0">
+                  <c:v>-79.531681000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-79.531680800000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-79.531680699999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-79.531680699999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-79.531680499999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-79.531679999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-79.531681300000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-79.531681800000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-79.531681300000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-79.531680800000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-79.531679999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-79.531679499999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-79.531677999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-79.531676200000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-79.531674199999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-79.531673699999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-79.531673699999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-79.531672799999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-79.531671799999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-79.531670500000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-79.531668800000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-79.531668199999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-79.531666299999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-79.531664300000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-79.531662999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-79.531661799999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-79.531660799999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-79.531659500000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-79.531657300000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-79.531655700000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-79.531654200000006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-79.531652800000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-79.531651699999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-79.531651299999993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-79.531650299999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-79.531649299999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-79.531648700000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-79.531647800000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-79.531646800000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-79.531645499999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-79.531643700000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-79.531642300000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-79.531640999999993</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-79.531640199999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-79.531639200000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-79.531637799999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-79.531637500000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-79.531637200000006</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-79.531636000000006</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-79.531634800000006</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-79.5316337</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-79.531632700000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-79.531631500000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-79.531630800000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-79.531629699999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-79.5316282</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-79.531626799999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-79.531625500000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-79.531624199999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-79.531623300000007</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-79.531621999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-79.531620500000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-79.531619699999993</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-79.531618300000005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-79.531617499999996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-79.531616499999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-79.531615799999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-79.531615500000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-79.5316148</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-79.531614000000005</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-79.531613800000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-79.531613800000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-79.531612800000005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-79.531612199999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-79.5316112</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-79.531610799999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-79.5316093</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-79.531608300000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-79.531608500000004</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-79.531607300000005</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-79.531605799999994</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-79.531603799999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-79.531602199999995</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-79.531600699999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-79.531599700000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-79.531597500000004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-79.531596199999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-79.531594499999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-79.531592500000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-79.531591199999994</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-79.531589199999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-79.531587700000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-79.531586700000005</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-79.531585699999994</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-79.531585199999995</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-79.531584300000006</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-79.531584499999994</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-79.531583800000007</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-79.531582700000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-79.531581799999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-79.531579699999995</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-79.531580199999993</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-79.531579699999995</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-79.531578800000005</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-79.531576999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-79.531575799999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-79.531573699999996</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-79.531572999999995</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-79.531571</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-79.531570500000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-79.5315698</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-79.531568800000002</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-79.531567699999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-79.531566999999995</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-79.531565999999998</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-79.531564799999998</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-79.531562800000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-79.531561300000007</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-79.531560499999998</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-79.531559700000003</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-79.531558700000005</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-79.531558000000004</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-79.531556499999994</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-79.531555699999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-79.531554700000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-79.531553500000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-79.531552500000004</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-79.531550699999997</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-79.531549699999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-79.5315485</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-79.531548299999997</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-79.531547700000004</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-79.531546700000007</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-79.531544499999995</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-79.531542799999997</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-79.531539300000006</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-79.531537</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-79.531534199999996</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-79.531511199999997</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-79.531510699999998</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-79.531510499999996</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-79.531508700000003</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-79.531507700000006</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-79.531507700000006</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-79.531508000000002</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-79.531506800000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-79.531506500000006</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-79.531506199999995</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-79.531505999999993</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-79.531505999999993</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-79.531506699999994</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-79.531506300000004</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-79.531505199999998</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-79.531504699999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-79.531503799999996</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-79.531504499999997</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-79.531504799999993</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-79.531504299999995</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-79.531503799999996</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-79.531502799999998</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-79.531502500000002</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-79.5315023</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-79.531501000000006</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-79.531499299999993</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-79.531497700000003</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-79.531496300000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-79.531495300000003</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-79.531494499999994</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-79.531492799999995</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-79.531492299999996</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-79.5314908</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-79.531489699999995</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-79.531487999999996</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-79.531487200000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-79.531485500000002</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-79.531484699999993</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-79.531484000000006</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-79.531482699999998</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-79.531481499999998</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-79.531480000000002</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-79.5314798</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-79.531478800000002</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-79.531479200000007</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-79.531479700000006</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-79.531480799999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E2B7-4EF1-BC84-CE3A1FE2FA95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1295739712"/>
+        <c:axId val="1394312816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1295739712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1394312816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1394312816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1295739712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PA"/>
+              <a:t>cuarto intento</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>logreg1!$A$438:$A$491</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>9.0233027000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0233016999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0232998000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0232992000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0232975</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0232969999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0232962000000008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0232946999999992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0232933000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0232918000000009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0232896999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0232872000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0232842000000009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0232822000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0232808000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0232793000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0232773000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0232764999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0232758000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0232759999999992</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0232758000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.0232737000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0232723000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0232714999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0232700000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.0232705000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.0232693000000008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.0232677999999993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.0232652000000009</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.0232632000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0232623000000007</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.0232617000000008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.0232607999999992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.0232592999999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.0232588000000007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0232582000000008</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0232562999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.0232531999999992</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.0232515000000006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.0232486999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.0232472999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.0232457999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.0232478</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.0232472000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.0232460000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.0232475000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.0232466999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.0232469999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.0232487999999993</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.0232480000000006</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.0232492999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.0232489999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.0232487999999993</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.0232487999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>logreg1!$B$438:$B$491</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>-79.531574199999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-79.531572800000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-79.531571200000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-79.531570000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-79.531568800000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-79.531568300000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-79.531567499999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-79.5315662</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-79.531564700000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-79.531564000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-79.531563700000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-79.531563199999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-79.531562199999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-79.531560999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-79.531560499999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-79.531559000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-79.531557199999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-79.531555699999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-79.531553799999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-79.531551800000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-79.531550300000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-79.531549299999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-79.531548700000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-79.531547799999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-79.531546800000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-79.531545499999993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-79.531544999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-79.531543999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-79.531542799999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-79.531542000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-79.531541700000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-79.531540699999994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-79.531540500000006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-79.531540699999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-79.531540199999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-79.531538699999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-79.531537700000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-79.531537700000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-79.531536299999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-79.531536299999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-79.531536299999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-79.531536700000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-79.531533699999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-79.531532200000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-79.531531299999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-79.531530200000006</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-79.531529500000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-79.531528300000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-79.531522499999994</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-79.531522499999994</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-79.531508799999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-79.531509799999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-79.531517699999995</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-79.531517500000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25B6-4FC8-AD88-A03B1CB093F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1396210208"/>
+        <c:axId val="1892013456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1396210208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1892013456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1892013456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1396210208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2610,20 +5439,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>436959</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>111919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>436959</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2643,6 +7020,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B51723-E8AA-4F07-965C-0B5D6188AB15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BDE7D54-309A-455B-8927-8F767FD69F58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>437</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8353FF6E-CF35-406B-8056-3F065D2118AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2950,24 +7435,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B195"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A249" sqref="A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2981,7 +7470,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2995,7 +7484,7 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3009,7 +7498,7 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3023,7 +7512,7 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3037,7 +7526,7 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3051,7 +7540,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3065,7 +7554,7 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3079,7 +7568,7 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3093,7 +7582,7 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3107,7 +7596,7 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3121,7 +7610,7 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3135,7 +7624,7 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3149,7 +7638,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3163,7 +7652,7 @@
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3177,7 +7666,7 @@
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3191,7 +7680,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3205,7 +7694,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3219,7 +7708,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3233,7 +7722,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3247,7 +7736,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3261,7 +7750,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3275,7 +7764,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3289,7 +7778,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3303,7 +7792,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3317,7 +7806,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3331,7 +7820,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3345,7 +7834,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3359,7 +7848,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3373,7 +7862,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3387,7 +7876,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3401,7 +7890,7 @@
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3415,7 +7904,7 @@
         <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3429,7 +7918,7 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3443,7 +7932,7 @@
         <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3457,7 +7946,7 @@
         <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3471,7 +7960,7 @@
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3485,7 +7974,7 @@
         <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3499,7 +7988,7 @@
         <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3513,7 +8002,7 @@
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3527,7 +8016,7 @@
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3541,7 +8030,7 @@
         <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3555,7 +8044,7 @@
         <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3569,7 +8058,7 @@
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3583,7 +8072,7 @@
         <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3597,7 +8086,7 @@
         <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3611,7 +8100,7 @@
         <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3625,7 +8114,7 @@
         <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3639,7 +8128,7 @@
         <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3653,7 +8142,7 @@
         <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3667,7 +8156,7 @@
         <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3681,7 +8170,7 @@
         <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3695,7 +8184,7 @@
         <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3709,7 +8198,7 @@
         <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3723,7 +8212,7 @@
         <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3737,7 +8226,7 @@
         <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3751,7 +8240,7 @@
         <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3765,7 +8254,7 @@
         <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3779,7 +8268,7 @@
         <v>21</v>
       </c>
       <c r="D59" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3793,7 +8282,7 @@
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3807,7 +8296,7 @@
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3821,7 +8310,7 @@
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3835,7 +8324,7 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3849,7 +8338,7 @@
         <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3863,7 +8352,7 @@
         <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3877,7 +8366,7 @@
         <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3891,7 +8380,7 @@
         <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3905,7 +8394,7 @@
         <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3919,7 +8408,7 @@
         <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3933,7 +8422,7 @@
         <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3947,7 +8436,7 @@
         <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3961,7 +8450,7 @@
         <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3975,7 +8464,7 @@
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3989,7 +8478,7 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4003,7 +8492,7 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -4017,7 +8506,7 @@
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4031,7 +8520,7 @@
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4045,7 +8534,7 @@
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -4059,7 +8548,7 @@
         <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4073,7 +8562,7 @@
         <v>17</v>
       </c>
       <c r="D80" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -4087,7 +8576,7 @@
         <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4101,7 +8590,7 @@
         <v>17</v>
       </c>
       <c r="D82" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -4115,7 +8604,7 @@
         <v>17</v>
       </c>
       <c r="D83" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4129,7 +8618,7 @@
         <v>17</v>
       </c>
       <c r="D84" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -4143,7 +8632,7 @@
         <v>17</v>
       </c>
       <c r="D85" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4157,7 +8646,7 @@
         <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4171,7 +8660,7 @@
         <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -4185,7 +8674,7 @@
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -4199,7 +8688,7 @@
         <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -4213,7 +8702,7 @@
         <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -4227,7 +8716,7 @@
         <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -4241,7 +8730,7 @@
         <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -4255,7 +8744,7 @@
         <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4269,7 +8758,7 @@
         <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4283,7 +8772,7 @@
         <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4297,7 +8786,7 @@
         <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4311,7 +8800,7 @@
         <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -4325,7 +8814,7 @@
         <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -4339,7 +8828,7 @@
         <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -4353,7 +8842,7 @@
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4367,7 +8856,7 @@
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4381,7 +8870,7 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4395,7 +8884,7 @@
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4409,7 +8898,7 @@
         <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -4423,7 +8912,7 @@
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4437,7 +8926,7 @@
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -4451,7 +8940,7 @@
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -4465,7 +8954,7 @@
         <v>13</v>
       </c>
       <c r="D108" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -4479,7 +8968,7 @@
         <v>13</v>
       </c>
       <c r="D109" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4493,7 +8982,7 @@
         <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4507,7 +8996,7 @@
         <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -4521,7 +9010,7 @@
         <v>12</v>
       </c>
       <c r="D112" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4535,7 +9024,7 @@
         <v>12</v>
       </c>
       <c r="D113" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -4549,7 +9038,7 @@
         <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -4563,7 +9052,7 @@
         <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -4577,7 +9066,7 @@
         <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4591,7 +9080,7 @@
         <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -4605,7 +9094,7 @@
         <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -4619,7 +9108,7 @@
         <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -4633,7 +9122,7 @@
         <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -4647,7 +9136,7 @@
         <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4661,7 +9150,7 @@
         <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -4675,7 +9164,7 @@
         <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4689,7 +9178,7 @@
         <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -4703,7 +9192,7 @@
         <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -4717,7 +9206,7 @@
         <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -4731,7 +9220,7 @@
         <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -4745,7 +9234,7 @@
         <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4759,7 +9248,7 @@
         <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4773,7 +9262,7 @@
         <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -4787,7 +9276,7 @@
         <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4801,7 +9290,7 @@
         <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -4815,7 +9304,7 @@
         <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -4829,7 +9318,7 @@
         <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4843,7 +9332,7 @@
         <v>8</v>
       </c>
       <c r="D135" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4857,7 +9346,7 @@
         <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4871,7 +9360,7 @@
         <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4885,7 +9374,7 @@
         <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4899,7 +9388,7 @@
         <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4913,7 +9402,7 @@
         <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4927,7 +9416,7 @@
         <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4941,7 +9430,7 @@
         <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4955,7 +9444,7 @@
         <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4969,7 +9458,7 @@
         <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4983,7 +9472,7 @@
         <v>7</v>
       </c>
       <c r="D145" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4997,7 +9486,7 @@
         <v>7</v>
       </c>
       <c r="D146" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -5011,7 +9500,7 @@
         <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -5025,7 +9514,7 @@
         <v>7</v>
       </c>
       <c r="D148" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -5039,7 +9528,7 @@
         <v>6</v>
       </c>
       <c r="D149" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -5053,7 +9542,7 @@
         <v>6</v>
       </c>
       <c r="D150" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -5067,7 +9556,7 @@
         <v>6</v>
       </c>
       <c r="D151" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -5081,7 +9570,7 @@
         <v>5</v>
       </c>
       <c r="D152" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -5095,7 +9584,7 @@
         <v>5</v>
       </c>
       <c r="D153" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -5109,7 +9598,7 @@
         <v>5</v>
       </c>
       <c r="D154" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -5123,7 +9612,7 @@
         <v>5</v>
       </c>
       <c r="D155" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -5137,7 +9626,7 @@
         <v>5</v>
       </c>
       <c r="D156" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5151,7 +9640,7 @@
         <v>5</v>
       </c>
       <c r="D157" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -5165,7 +9654,7 @@
         <v>5</v>
       </c>
       <c r="D158" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -5179,7 +9668,7 @@
         <v>5</v>
       </c>
       <c r="D159" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -5193,7 +9682,7 @@
         <v>5</v>
       </c>
       <c r="D160" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -5207,7 +9696,7 @@
         <v>5</v>
       </c>
       <c r="D161" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -5221,7 +9710,7 @@
         <v>4</v>
       </c>
       <c r="D162" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -5235,7 +9724,7 @@
         <v>5</v>
       </c>
       <c r="D163" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -5249,7 +9738,7 @@
         <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -5263,7 +9752,7 @@
         <v>4</v>
       </c>
       <c r="D165" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -5277,7 +9766,7 @@
         <v>4</v>
       </c>
       <c r="D166" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -5291,7 +9780,7 @@
         <v>4</v>
       </c>
       <c r="D167" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5305,7 +9794,7 @@
         <v>4</v>
       </c>
       <c r="D168" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5319,7 +9808,7 @@
         <v>3</v>
       </c>
       <c r="D169" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5333,7 +9822,7 @@
         <v>3</v>
       </c>
       <c r="D170" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5347,7 +9836,7 @@
         <v>3</v>
       </c>
       <c r="D171" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5361,7 +9850,7 @@
         <v>3</v>
       </c>
       <c r="D172" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5375,7 +9864,7 @@
         <v>3</v>
       </c>
       <c r="D173" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -5389,7 +9878,7 @@
         <v>3</v>
       </c>
       <c r="D174" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5403,7 +9892,7 @@
         <v>3</v>
       </c>
       <c r="D175" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -5417,7 +9906,7 @@
         <v>3</v>
       </c>
       <c r="D176" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -5431,7 +9920,7 @@
         <v>3</v>
       </c>
       <c r="D177" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -5445,7 +9934,7 @@
         <v>3</v>
       </c>
       <c r="D178" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -5459,7 +9948,7 @@
         <v>3</v>
       </c>
       <c r="D179" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -5473,7 +9962,7 @@
         <v>3</v>
       </c>
       <c r="D180" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -5487,7 +9976,7 @@
         <v>3</v>
       </c>
       <c r="D181" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -5501,7 +9990,7 @@
         <v>3</v>
       </c>
       <c r="D182" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -5515,7 +10004,7 @@
         <v>3</v>
       </c>
       <c r="D183" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -5529,7 +10018,7 @@
         <v>3</v>
       </c>
       <c r="D184" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -5543,7 +10032,7 @@
         <v>3</v>
       </c>
       <c r="D185" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -5557,7 +10046,7 @@
         <v>3</v>
       </c>
       <c r="D186" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -5571,7 +10060,7 @@
         <v>4</v>
       </c>
       <c r="D187" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -5585,7 +10074,7 @@
         <v>4</v>
       </c>
       <c r="D188" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -5599,7 +10088,7 @@
         <v>4</v>
       </c>
       <c r="D189" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -5613,7 +10102,7 @@
         <v>4</v>
       </c>
       <c r="D190" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -5627,7 +10116,7 @@
         <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -5641,7 +10130,7 @@
         <v>3</v>
       </c>
       <c r="D192" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -5655,7 +10144,7 @@
         <v>3</v>
       </c>
       <c r="D193" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -5669,7 +10158,7 @@
         <v>3</v>
       </c>
       <c r="D194" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -5683,7 +10172,7 @@
         <v>2</v>
       </c>
       <c r="D195" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -5697,7 +10186,7 @@
         <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -5711,7 +10200,7 @@
         <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -5725,7 +10214,7 @@
         <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -5739,7 +10228,7 @@
         <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -5753,7 +10242,7 @@
         <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -5767,7 +10256,7 @@
         <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5781,7 +10270,7 @@
         <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5795,7 +10284,7 @@
         <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -5809,7 +10298,7 @@
         <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -5823,7 +10312,7 @@
         <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5837,7 +10326,7 @@
         <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5851,7 +10340,7 @@
         <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5865,7 +10354,7 @@
         <v>8</v>
       </c>
       <c r="D208" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5879,7 +10368,7 @@
         <v>8</v>
       </c>
       <c r="D209" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5893,7 +10382,7 @@
         <v>8</v>
       </c>
       <c r="D210" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5907,7 +10396,7 @@
         <v>8</v>
       </c>
       <c r="D211" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5921,7 +10410,7 @@
         <v>8</v>
       </c>
       <c r="D212" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5935,7 +10424,7 @@
         <v>8</v>
       </c>
       <c r="D213" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5949,7 +10438,7 @@
         <v>8</v>
       </c>
       <c r="D214" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5963,7 +10452,7 @@
         <v>7</v>
       </c>
       <c r="D215" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5977,7 +10466,7 @@
         <v>7</v>
       </c>
       <c r="D216" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5991,7 +10480,7 @@
         <v>7</v>
       </c>
       <c r="D217" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -6005,7 +10494,7 @@
         <v>7</v>
       </c>
       <c r="D218" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -6019,7 +10508,7 @@
         <v>7</v>
       </c>
       <c r="D219" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -6033,7 +10522,7 @@
         <v>7</v>
       </c>
       <c r="D220" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -6047,7 +10536,7 @@
         <v>6</v>
       </c>
       <c r="D221" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -6061,7 +10550,7 @@
         <v>6</v>
       </c>
       <c r="D222" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -6075,7 +10564,7 @@
         <v>6</v>
       </c>
       <c r="D223" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -6089,7 +10578,7 @@
         <v>6</v>
       </c>
       <c r="D224" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -6103,7 +10592,7 @@
         <v>6</v>
       </c>
       <c r="D225" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -6117,7 +10606,7 @@
         <v>6</v>
       </c>
       <c r="D226" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -6131,7 +10620,7 @@
         <v>5</v>
       </c>
       <c r="D227" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -6145,7 +10634,7 @@
         <v>5</v>
       </c>
       <c r="D228" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -6159,7 +10648,7 @@
         <v>5</v>
       </c>
       <c r="D229" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -6173,7 +10662,7 @@
         <v>5</v>
       </c>
       <c r="D230" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -6187,7 +10676,7 @@
         <v>4</v>
       </c>
       <c r="D231" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -6201,7 +10690,7 @@
         <v>4</v>
       </c>
       <c r="D232" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -6215,7 +10704,7 @@
         <v>4</v>
       </c>
       <c r="D233" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -6229,7 +10718,7 @@
         <v>4</v>
       </c>
       <c r="D234" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -6243,7 +10732,7 @@
         <v>4</v>
       </c>
       <c r="D235" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -6257,7 +10746,7 @@
         <v>4</v>
       </c>
       <c r="D236" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -6271,7 +10760,7 @@
         <v>4</v>
       </c>
       <c r="D237" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -6285,7 +10774,7 @@
         <v>4</v>
       </c>
       <c r="D238" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -6299,7 +10788,7 @@
         <v>4</v>
       </c>
       <c r="D239" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -6313,7 +10802,7 @@
         <v>3</v>
       </c>
       <c r="D240" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -6327,7 +10816,7 @@
         <v>3</v>
       </c>
       <c r="D241" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -6341,7 +10830,7 @@
         <v>3</v>
       </c>
       <c r="D242" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -6355,7 +10844,7 @@
         <v>3</v>
       </c>
       <c r="D243" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -6369,7 +10858,7 @@
         <v>3</v>
       </c>
       <c r="D244" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -6383,7 +10872,7 @@
         <v>4</v>
       </c>
       <c r="D245" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -6397,7 +10886,7 @@
         <v>3</v>
       </c>
       <c r="D246" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -6411,7 +10900,7 @@
         <v>3</v>
       </c>
       <c r="D247" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -6425,7 +10914,7 @@
         <v>3</v>
       </c>
       <c r="D248" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -6439,7 +10928,7 @@
         <v>4</v>
       </c>
       <c r="D249" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -6453,7 +10942,7 @@
         <v>4</v>
       </c>
       <c r="D250" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -6467,7 +10956,7 @@
         <v>4</v>
       </c>
       <c r="D251" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -6481,7 +10970,7 @@
         <v>4</v>
       </c>
       <c r="D252" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -6495,7 +10984,7 @@
         <v>30</v>
       </c>
       <c r="D253" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -6509,7 +10998,7 @@
         <v>30</v>
       </c>
       <c r="D254" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -6523,7 +11012,7 @@
         <v>30</v>
       </c>
       <c r="D255" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -6537,7 +11026,7 @@
         <v>30</v>
       </c>
       <c r="D256" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -6551,7 +11040,7 @@
         <v>31</v>
       </c>
       <c r="D257" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -6565,7 +11054,7 @@
         <v>31</v>
       </c>
       <c r="D258" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -6579,7 +11068,7 @@
         <v>32</v>
       </c>
       <c r="D259" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -6593,7 +11082,7 @@
         <v>32</v>
       </c>
       <c r="D260" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -6607,7 +11096,7 @@
         <v>32</v>
       </c>
       <c r="D261" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -6621,7 +11110,7 @@
         <v>32</v>
       </c>
       <c r="D262" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -6635,7 +11124,7 @@
         <v>32</v>
       </c>
       <c r="D263" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -6649,7 +11138,7 @@
         <v>31</v>
       </c>
       <c r="D264" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -6663,7 +11152,7 @@
         <v>31</v>
       </c>
       <c r="D265" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -6677,7 +11166,7 @@
         <v>31</v>
       </c>
       <c r="D266" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -6691,7 +11180,7 @@
         <v>31</v>
       </c>
       <c r="D267" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -6705,7 +11194,7 @@
         <v>30</v>
       </c>
       <c r="D268" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -6719,7 +11208,7 @@
         <v>30</v>
       </c>
       <c r="D269" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -6733,7 +11222,7 @@
         <v>30</v>
       </c>
       <c r="D270" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -6747,7 +11236,7 @@
         <v>30</v>
       </c>
       <c r="D271" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -6761,7 +11250,7 @@
         <v>30</v>
       </c>
       <c r="D272" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -6775,7 +11264,7 @@
         <v>29</v>
       </c>
       <c r="D273" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -6789,7 +11278,7 @@
         <v>29</v>
       </c>
       <c r="D274" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -6803,7 +11292,7 @@
         <v>29</v>
       </c>
       <c r="D275" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6817,7 +11306,7 @@
         <v>29</v>
       </c>
       <c r="D276" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6831,7 +11320,7 @@
         <v>28</v>
       </c>
       <c r="D277" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6845,7 +11334,7 @@
         <v>28</v>
       </c>
       <c r="D278" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6859,7 +11348,7 @@
         <v>28</v>
       </c>
       <c r="D279" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6873,7 +11362,7 @@
         <v>28</v>
       </c>
       <c r="D280" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6887,7 +11376,7 @@
         <v>28</v>
       </c>
       <c r="D281" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6901,7 +11390,7 @@
         <v>27</v>
       </c>
       <c r="D282" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6915,7 +11404,7 @@
         <v>27</v>
       </c>
       <c r="D283" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -6929,7 +11418,7 @@
         <v>27</v>
       </c>
       <c r="D284" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6943,7 +11432,7 @@
         <v>27</v>
       </c>
       <c r="D285" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6957,7 +11446,7 @@
         <v>27</v>
       </c>
       <c r="D286" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6971,7 +11460,7 @@
         <v>27</v>
       </c>
       <c r="D287" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6985,7 +11474,7 @@
         <v>26</v>
       </c>
       <c r="D288" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6999,7 +11488,7 @@
         <v>26</v>
       </c>
       <c r="D289" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -7013,7 +11502,7 @@
         <v>26</v>
       </c>
       <c r="D290" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -7027,7 +11516,7 @@
         <v>26</v>
       </c>
       <c r="D291" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -7041,7 +11530,7 @@
         <v>25</v>
       </c>
       <c r="D292" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -7055,7 +11544,7 @@
         <v>25</v>
       </c>
       <c r="D293" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -7069,7 +11558,7 @@
         <v>25</v>
       </c>
       <c r="D294" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -7083,7 +11572,7 @@
         <v>25</v>
       </c>
       <c r="D295" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -7097,7 +11586,7 @@
         <v>24</v>
       </c>
       <c r="D296" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -7111,7 +11600,7 @@
         <v>24</v>
       </c>
       <c r="D297" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -7125,7 +11614,7 @@
         <v>24</v>
       </c>
       <c r="D298" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -7139,7 +11628,7 @@
         <v>24</v>
       </c>
       <c r="D299" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -7153,7 +11642,7 @@
         <v>24</v>
       </c>
       <c r="D300" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -7167,7 +11656,7 @@
         <v>23</v>
       </c>
       <c r="D301" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -7181,7 +11670,7 @@
         <v>23</v>
       </c>
       <c r="D302" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -7195,7 +11684,7 @@
         <v>23</v>
       </c>
       <c r="D303" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -7209,7 +11698,7 @@
         <v>23</v>
       </c>
       <c r="D304" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -7223,7 +11712,7 @@
         <v>23</v>
       </c>
       <c r="D305" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -7237,7 +11726,7 @@
         <v>23</v>
       </c>
       <c r="D306" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -7251,7 +11740,7 @@
         <v>22</v>
       </c>
       <c r="D307" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -7265,7 +11754,7 @@
         <v>22</v>
       </c>
       <c r="D308" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -7279,7 +11768,7 @@
         <v>22</v>
       </c>
       <c r="D309" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -7293,7 +11782,7 @@
         <v>22</v>
       </c>
       <c r="D310" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -7307,7 +11796,7 @@
         <v>22</v>
       </c>
       <c r="D311" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -7321,7 +11810,7 @@
         <v>21</v>
       </c>
       <c r="D312" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -7335,7 +11824,7 @@
         <v>21</v>
       </c>
       <c r="D313" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -7349,7 +11838,7 @@
         <v>21</v>
       </c>
       <c r="D314" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7363,7 +11852,7 @@
         <v>21</v>
       </c>
       <c r="D315" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -7377,7 +11866,7 @@
         <v>21</v>
       </c>
       <c r="D316" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -7391,7 +11880,7 @@
         <v>21</v>
       </c>
       <c r="D317" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -7405,7 +11894,7 @@
         <v>20</v>
       </c>
       <c r="D318" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -7419,7 +11908,7 @@
         <v>20</v>
       </c>
       <c r="D319" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -7433,7 +11922,7 @@
         <v>20</v>
       </c>
       <c r="D320" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -7447,7 +11936,7 @@
         <v>20</v>
       </c>
       <c r="D321" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -7461,7 +11950,7 @@
         <v>20</v>
       </c>
       <c r="D322" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -7475,7 +11964,7 @@
         <v>20</v>
       </c>
       <c r="D323" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -7489,7 +11978,7 @@
         <v>20</v>
       </c>
       <c r="D324" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -7503,7 +11992,7 @@
         <v>20</v>
       </c>
       <c r="D325" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -7517,7 +12006,7 @@
         <v>20</v>
       </c>
       <c r="D326" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -7531,7 +12020,7 @@
         <v>19</v>
       </c>
       <c r="D327" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -7545,7 +12034,7 @@
         <v>19</v>
       </c>
       <c r="D328" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -7559,7 +12048,7 @@
         <v>19</v>
       </c>
       <c r="D329" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -7573,7 +12062,7 @@
         <v>19</v>
       </c>
       <c r="D330" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -7587,7 +12076,7 @@
         <v>19</v>
       </c>
       <c r="D331" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -7601,7 +12090,7 @@
         <v>19</v>
       </c>
       <c r="D332" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -7615,7 +12104,7 @@
         <v>19</v>
       </c>
       <c r="D333" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -7629,7 +12118,7 @@
         <v>19</v>
       </c>
       <c r="D334" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -7643,7 +12132,7 @@
         <v>19</v>
       </c>
       <c r="D335" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -7657,7 +12146,7 @@
         <v>19</v>
       </c>
       <c r="D336" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -7671,7 +12160,7 @@
         <v>18</v>
       </c>
       <c r="D337" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -7685,7 +12174,7 @@
         <v>18</v>
       </c>
       <c r="D338" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -7699,7 +12188,7 @@
         <v>18</v>
       </c>
       <c r="D339" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -7713,7 +12202,7 @@
         <v>18</v>
       </c>
       <c r="D340" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -7727,7 +12216,7 @@
         <v>18</v>
       </c>
       <c r="D341" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -7741,7 +12230,7 @@
         <v>17</v>
       </c>
       <c r="D342" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -7755,7 +12244,7 @@
         <v>17</v>
       </c>
       <c r="D343" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -7769,7 +12258,7 @@
         <v>17</v>
       </c>
       <c r="D344" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -7783,7 +12272,7 @@
         <v>17</v>
       </c>
       <c r="D345" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -7797,7 +12286,7 @@
         <v>17</v>
       </c>
       <c r="D346" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -7811,7 +12300,7 @@
         <v>17</v>
       </c>
       <c r="D347" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -7825,7 +12314,7 @@
         <v>17</v>
       </c>
       <c r="D348" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -7839,7 +12328,7 @@
         <v>16</v>
       </c>
       <c r="D349" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -7853,7 +12342,7 @@
         <v>16</v>
       </c>
       <c r="D350" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -7867,7 +12356,7 @@
         <v>16</v>
       </c>
       <c r="D351" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -7881,7 +12370,7 @@
         <v>16</v>
       </c>
       <c r="D352" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -7895,7 +12384,7 @@
         <v>16</v>
       </c>
       <c r="D353" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -7909,7 +12398,7 @@
         <v>15</v>
       </c>
       <c r="D354" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -7923,7 +12412,7 @@
         <v>15</v>
       </c>
       <c r="D355" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -7937,7 +12426,7 @@
         <v>15</v>
       </c>
       <c r="D356" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -7951,7 +12440,7 @@
         <v>15</v>
       </c>
       <c r="D357" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -7965,7 +12454,7 @@
         <v>15</v>
       </c>
       <c r="D358" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -7979,7 +12468,7 @@
         <v>15</v>
       </c>
       <c r="D359" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -7993,7 +12482,7 @@
         <v>15</v>
       </c>
       <c r="D360" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -8007,7 +12496,7 @@
         <v>14</v>
       </c>
       <c r="D361" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -8021,7 +12510,7 @@
         <v>14</v>
       </c>
       <c r="D362" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -8035,7 +12524,7 @@
         <v>14</v>
       </c>
       <c r="D363" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -8049,7 +12538,7 @@
         <v>14</v>
       </c>
       <c r="D364" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -8063,7 +12552,7 @@
         <v>14</v>
       </c>
       <c r="D365" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -8077,7 +12566,7 @@
         <v>14</v>
       </c>
       <c r="D366" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -8091,7 +12580,7 @@
         <v>13</v>
       </c>
       <c r="D367" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -8105,7 +12594,7 @@
         <v>13</v>
       </c>
       <c r="D368" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -8119,7 +12608,7 @@
         <v>13</v>
       </c>
       <c r="D369" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -8133,7 +12622,7 @@
         <v>13</v>
       </c>
       <c r="D370" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -8147,7 +12636,7 @@
         <v>12</v>
       </c>
       <c r="D371" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -8161,7 +12650,7 @@
         <v>12</v>
       </c>
       <c r="D372" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -8175,7 +12664,7 @@
         <v>12</v>
       </c>
       <c r="D373" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -8189,7 +12678,7 @@
         <v>12</v>
       </c>
       <c r="D374" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -8203,7 +12692,7 @@
         <v>12</v>
       </c>
       <c r="D375" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -8217,7 +12706,7 @@
         <v>12</v>
       </c>
       <c r="D376" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -8231,7 +12720,7 @@
         <v>11</v>
       </c>
       <c r="D377" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -8245,7 +12734,7 @@
         <v>11</v>
       </c>
       <c r="D378" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -8259,7 +12748,7 @@
         <v>11</v>
       </c>
       <c r="D379" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -8273,7 +12762,7 @@
         <v>11</v>
       </c>
       <c r="D380" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -8287,7 +12776,7 @@
         <v>11</v>
       </c>
       <c r="D381" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -8301,7 +12790,7 @@
         <v>11</v>
       </c>
       <c r="D382" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -8315,7 +12804,7 @@
         <v>11</v>
       </c>
       <c r="D383" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -8329,7 +12818,7 @@
         <v>11</v>
       </c>
       <c r="D384" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -8343,7 +12832,7 @@
         <v>10</v>
       </c>
       <c r="D385" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -8357,7 +12846,7 @@
         <v>10</v>
       </c>
       <c r="D386" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -8371,7 +12860,7 @@
         <v>10</v>
       </c>
       <c r="D387" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -8385,7 +12874,7 @@
         <v>10</v>
       </c>
       <c r="D388" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -8399,7 +12888,7 @@
         <v>10</v>
       </c>
       <c r="D389" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -8413,7 +12902,7 @@
         <v>10</v>
       </c>
       <c r="D390" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -8424,7 +12913,7 @@
         <v>7</v>
       </c>
       <c r="D391" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -8438,7 +12927,7 @@
         <v>7</v>
       </c>
       <c r="D392" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -8452,7 +12941,7 @@
         <v>7</v>
       </c>
       <c r="D393" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -8466,7 +12955,7 @@
         <v>7</v>
       </c>
       <c r="D394" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -8480,7 +12969,7 @@
         <v>7</v>
       </c>
       <c r="D395" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -8494,7 +12983,7 @@
         <v>7</v>
       </c>
       <c r="D396" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -8508,7 +12997,7 @@
         <v>7</v>
       </c>
       <c r="D397" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -8522,7 +13011,7 @@
         <v>7</v>
       </c>
       <c r="D398" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -8536,7 +13025,7 @@
         <v>7</v>
       </c>
       <c r="D399" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -8550,7 +13039,7 @@
         <v>6</v>
       </c>
       <c r="D400" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -8564,7 +13053,7 @@
         <v>6</v>
       </c>
       <c r="D401" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -8578,7 +13067,7 @@
         <v>6</v>
       </c>
       <c r="D402" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -8592,7 +13081,7 @@
         <v>6</v>
       </c>
       <c r="D403" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -8606,7 +13095,7 @@
         <v>6</v>
       </c>
       <c r="D404" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -8620,7 +13109,7 @@
         <v>6</v>
       </c>
       <c r="D405" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -8634,7 +13123,7 @@
         <v>5</v>
       </c>
       <c r="D406" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -8648,7 +13137,7 @@
         <v>5</v>
       </c>
       <c r="D407" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -8662,7 +13151,7 @@
         <v>5</v>
       </c>
       <c r="D408" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -8676,7 +13165,7 @@
         <v>4</v>
       </c>
       <c r="D409" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -8690,7 +13179,7 @@
         <v>4</v>
       </c>
       <c r="D410" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -8704,7 +13193,7 @@
         <v>4</v>
       </c>
       <c r="D411" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -8718,7 +13207,7 @@
         <v>4</v>
       </c>
       <c r="D412" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -8732,7 +13221,7 @@
         <v>4</v>
       </c>
       <c r="D413" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -8746,7 +13235,7 @@
         <v>4</v>
       </c>
       <c r="D414" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -8760,7 +13249,7 @@
         <v>3</v>
       </c>
       <c r="D415" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -8774,7 +13263,7 @@
         <v>3</v>
       </c>
       <c r="D416" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -8788,7 +13277,7 @@
         <v>3</v>
       </c>
       <c r="D417" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -8802,7 +13291,7 @@
         <v>3</v>
       </c>
       <c r="D418" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -8816,7 +13305,7 @@
         <v>3</v>
       </c>
       <c r="D419" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
@@ -8830,7 +13319,7 @@
         <v>3</v>
       </c>
       <c r="D420" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -8844,7 +13333,7 @@
         <v>3</v>
       </c>
       <c r="D421" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -8858,7 +13347,7 @@
         <v>3</v>
       </c>
       <c r="D422" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -8872,7 +13361,7 @@
         <v>3</v>
       </c>
       <c r="D423" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -8886,7 +13375,7 @@
         <v>3</v>
       </c>
       <c r="D424" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -8900,7 +13389,7 @@
         <v>3</v>
       </c>
       <c r="D425" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -8914,7 +13403,7 @@
         <v>3</v>
       </c>
       <c r="D426" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -8928,7 +13417,7 @@
         <v>3</v>
       </c>
       <c r="D427" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
@@ -8942,7 +13431,7 @@
         <v>3</v>
       </c>
       <c r="D428" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
@@ -8956,7 +13445,7 @@
         <v>3</v>
       </c>
       <c r="D429" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
@@ -8970,7 +13459,7 @@
         <v>3</v>
       </c>
       <c r="D430" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
@@ -8984,7 +13473,7 @@
         <v>3</v>
       </c>
       <c r="D431" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
@@ -8998,7 +13487,7 @@
         <v>4</v>
       </c>
       <c r="D432" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
@@ -9012,7 +13501,7 @@
         <v>4</v>
       </c>
       <c r="D433" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
@@ -9026,7 +13515,7 @@
         <v>4</v>
       </c>
       <c r="D434" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -9040,7 +13529,7 @@
         <v>4</v>
       </c>
       <c r="D435" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -9054,7 +13543,7 @@
         <v>4</v>
       </c>
       <c r="D436" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
@@ -9068,7 +13557,7 @@
         <v>4</v>
       </c>
       <c r="D437" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
@@ -9082,7 +13571,7 @@
         <v>14</v>
       </c>
       <c r="D438" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -9096,7 +13585,7 @@
         <v>14</v>
       </c>
       <c r="D439" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -9110,7 +13599,7 @@
         <v>14</v>
       </c>
       <c r="D440" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
@@ -9124,7 +13613,7 @@
         <v>14</v>
       </c>
       <c r="D441" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
@@ -9138,7 +13627,7 @@
         <v>14</v>
       </c>
       <c r="D442" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
@@ -9152,7 +13641,7 @@
         <v>14</v>
       </c>
       <c r="D443" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
@@ -9166,7 +13655,7 @@
         <v>14</v>
       </c>
       <c r="D444" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
@@ -9180,7 +13669,7 @@
         <v>13</v>
       </c>
       <c r="D445" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
@@ -9194,7 +13683,7 @@
         <v>13</v>
       </c>
       <c r="D446" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -9208,7 +13697,7 @@
         <v>13</v>
       </c>
       <c r="D447" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -9222,7 +13711,7 @@
         <v>13</v>
       </c>
       <c r="D448" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -9236,7 +13725,7 @@
         <v>12</v>
       </c>
       <c r="D449" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -9250,7 +13739,7 @@
         <v>12</v>
       </c>
       <c r="D450" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
@@ -9264,7 +13753,7 @@
         <v>12</v>
       </c>
       <c r="D451" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
@@ -9278,7 +13767,7 @@
         <v>12</v>
       </c>
       <c r="D452" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
@@ -9292,7 +13781,7 @@
         <v>11</v>
       </c>
       <c r="D453" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -9306,7 +13795,7 @@
         <v>11</v>
       </c>
       <c r="D454" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
@@ -9320,7 +13809,7 @@
         <v>11</v>
       </c>
       <c r="D455" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
@@ -9334,7 +13823,7 @@
         <v>11</v>
       </c>
       <c r="D456" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
@@ -9348,7 +13837,7 @@
         <v>11</v>
       </c>
       <c r="D457" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
@@ -9362,7 +13851,7 @@
         <v>11</v>
       </c>
       <c r="D458" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
@@ -9376,7 +13865,7 @@
         <v>10</v>
       </c>
       <c r="D459" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
@@ -9390,7 +13879,7 @@
         <v>10</v>
       </c>
       <c r="D460" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
@@ -9404,7 +13893,7 @@
         <v>10</v>
       </c>
       <c r="D461" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
@@ -9418,7 +13907,7 @@
         <v>10</v>
       </c>
       <c r="D462" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
@@ -9432,7 +13921,7 @@
         <v>10</v>
       </c>
       <c r="D463" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
@@ -9446,7 +13935,7 @@
         <v>10</v>
       </c>
       <c r="D464" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
@@ -9460,7 +13949,7 @@
         <v>10</v>
       </c>
       <c r="D465" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
@@ -9474,7 +13963,7 @@
         <v>9</v>
       </c>
       <c r="D466" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
@@ -9488,7 +13977,7 @@
         <v>9</v>
       </c>
       <c r="D467" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
@@ -9502,7 +13991,7 @@
         <v>9</v>
       </c>
       <c r="D468" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
@@ -9516,7 +14005,7 @@
         <v>9</v>
       </c>
       <c r="D469" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
@@ -9530,7 +14019,7 @@
         <v>9</v>
       </c>
       <c r="D470" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -9544,7 +14033,7 @@
         <v>9</v>
       </c>
       <c r="D471" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -9558,7 +14047,7 @@
         <v>9</v>
       </c>
       <c r="D472" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -9572,7 +14061,7 @@
         <v>8</v>
       </c>
       <c r="D473" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -9586,7 +14075,7 @@
         <v>8</v>
       </c>
       <c r="D474" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -9600,7 +14089,7 @@
         <v>8</v>
       </c>
       <c r="D475" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -9614,7 +14103,7 @@
         <v>8</v>
       </c>
       <c r="D476" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -9628,7 +14117,7 @@
         <v>7</v>
       </c>
       <c r="D477" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -9642,7 +14131,7 @@
         <v>7</v>
       </c>
       <c r="D478" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
@@ -9656,7 +14145,7 @@
         <v>7</v>
       </c>
       <c r="D479" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
@@ -9670,7 +14159,7 @@
         <v>7</v>
       </c>
       <c r="D480" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
@@ -9684,7 +14173,7 @@
         <v>7</v>
       </c>
       <c r="D481" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
@@ -9698,7 +14187,7 @@
         <v>7</v>
       </c>
       <c r="D482" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -9712,7 +14201,7 @@
         <v>7</v>
       </c>
       <c r="D483" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
@@ -9726,7 +14215,7 @@
         <v>7</v>
       </c>
       <c r="D484" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
@@ -9740,7 +14229,7 @@
         <v>7</v>
       </c>
       <c r="D485" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
@@ -9754,7 +14243,7 @@
         <v>7</v>
       </c>
       <c r="D486" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -9768,7 +14257,7 @@
         <v>7</v>
       </c>
       <c r="D487" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
@@ -9782,7 +14271,7 @@
         <v>7</v>
       </c>
       <c r="D488" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
@@ -9796,7 +14285,7 @@
         <v>7</v>
       </c>
       <c r="D489" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
@@ -9810,7 +14299,7 @@
         <v>7</v>
       </c>
       <c r="D490" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
@@ -9824,7 +14313,7 @@
         <v>7</v>
       </c>
       <c r="D491" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
